--- a/medicine/Enfance/Les_Douze_Travaux_de_Flavia/Les_Douze_Travaux_de_Flavia.xlsx
+++ b/medicine/Enfance/Les_Douze_Travaux_de_Flavia/Les_Douze_Travaux_de_Flavia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Douze Travaux de Flavia (The Twelve Tasks of Flavia Gemina) est le sixième volume de la série de romans écrits par Caroline Lawrence, Les Mystères romains, publié en France, aux éditions Milan, en 2005. L'action de ce roman historique se situe sous la Rome antique, dans la ville d'Ostie, port de Rome.
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">"Ils sont quatre : Flavia, la fille d'un armateur romain, Jonathan, le jeune chrétien, Nubia, l'esclave africaine, et Lupus, le petit mendiant muet. Unis par les aventures et les périls. Cette fois-ci, c'est sur les traces d'Hercules que se lancent les quatre amis. Tout comme le héros, douze travaux les attendent. Douze épreuves... Douze énigmes... Douze défis."
 </t>
@@ -543,7 +557,9 @@
           <t>Parutions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Milan (Poche Histoire), 2005,  (ISBN 2-7459-1024-8)</t>
         </is>
@@ -573,7 +589,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Site officiel des éditions Milan
  Portail de la Rome antique   Portail de la littérature américaine   Portail de la littérature d’enfance et de jeunesse                   </t>
